--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>3.09825757489699</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.9133058485940815</v>
+        <v>7.865470614547343</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-0.964326611260069</v>
+        <v>-1.791203563722299</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.1828295556527637</v>
+        <v>-6.760862998203643</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.4542379593282408</v>
+        <v>0.5799958470386946</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.9673802194150927</v>
+        <v>5.643342995751777</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>1.343968752336533</v>
+        <v>3.181454202131073</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>1.205410808099971</v>
+        <v>4.38978860149748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>1.154909844891772</v>
+        <v>0.5930547804883668</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>1.609625625600009</v>
+        <v>-1.194610791900008</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.9774320275524939</v>
+        <v>-0.3951783438669754</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.8024032016000104</v>
+        <v>0.03694906323863378</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.557111828187074</v>
+        <v>3.292216014290039</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>2.015050062499935</v>
+        <v>7.617133650412211</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.625395892470793</v>
+        <v>1.670328650030184</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>1.702833213453658</v>
+        <v>2.037906845818616</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.089970671321684</v>
+        <v>2.562791874943371</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.188369315221617</v>
+        <v>3.265947405805814</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.846039903575125</v>
+        <v>1.526411006965533</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>1.960377863529938</v>
+        <v>0.6601843988560674</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.393980601271961</v>
+        <v>1.63465618619294</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>2.665653113374034</v>
+        <v>1.551857746372698</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>1.143160568535695</v>
+        <v>1.35261353265177</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>1.191225634687099</v>
+        <v>0.8024032016000104</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>1.094577902173044</v>
+        <v>-2.082763426755907</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.751962538886721</v>
+        <v>-5.866344937500023</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.8524833869929083</v>
+        <v>-0.1380317107957718</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>7.538591891386281</v>
+        <v>7.749494937649115</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.063862931147242</v>
+        <v>3.848999231984762</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.657479386465855</v>
+        <v>2.866003071127765</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6664444232280076</v>
+        <v>-0.3745803349312071</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.7566751776858283</v>
+        <v>0.645722451525943</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.2101112903678759</v>
+        <v>-1.091476630333243</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.4835396987873164</v>
+        <v>-0.4907904687545206</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.6134856520689347</v>
+        <v>1.626992717807862</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.8852924154914676</v>
+        <v>0.6270138473519316</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.1380317107957718</v>
+        <v>-2.61626741352563</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>7.749494937649115</v>
+        <v>-4.982381489483345</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>3.848999231984762</v>
+        <v>4.740462114200339</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>2.866003071127765</v>
+        <v>7.292134478258427</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.3745803349312071</v>
+        <v>-1.298607950737329</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.645722451525943</v>
+        <v>-3.9629219377881</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.091476630333243</v>
+        <v>-0.9941519742633131</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.4907904687545206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.626992717807862</v>
+        <v>1.069485063776954</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.6270138473519316</v>
+        <v>-2.110726282892128</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_DOMUSE_yoy_AVERAGE_1_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>3.09825757489699</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>7.865470614547343</v>
+        <v>7.865470614547321</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -446,7 +443,7 @@
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-6.760862998203643</v>
+        <v>-6.760862998203621</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.5799958470386946</v>
+        <v>0.5799958470386724</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -491,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.5930547804883668</v>
+        <v>0.5930547804883446</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>-1.194610791900008</v>
+        <v>-1.194610791899986</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>7.617133650412211</v>
+        <v>7.617133650412167</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>1.670328650030184</v>
+        <v>1.670328650030162</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.037906845818616</v>
+        <v>2.037906845818593</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>2.562791874943371</v>
+        <v>2.562791874943349</v>
       </c>
       <c r="D10">
         <v>2017</v>
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>1.526411006965533</v>
+        <v>1.526411006965578</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.6601843988560674</v>
+        <v>0.6601843988560452</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -599,7 +596,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>1.551857746372698</v>
+        <v>1.55185774637272</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -633,7 +630,7 @@
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-5.866344937500023</v>
+        <v>-5.866344937500012</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-2.61626741352563</v>
+        <v>-2.616267413525608</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-4.982381489483345</v>
+        <v>-4.982381489483368</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -678,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-1.298607950737329</v>
+        <v>-1.298607950737285</v>
       </c>
       <c r="D17">
         <v>2024</v>
@@ -695,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.9941519742633131</v>
+        <v>-0.994151974263302</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -712,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>1.069485063776954</v>
+        <v>1.069485063776932</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-2.110726282892128</v>
+        <v>-2.110726282892139</v>
       </c>
     </row>
   </sheetData>
